--- a/TP2/docs/data_functions.xlsx
+++ b/TP2/docs/data_functions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ualg365-my.sharepoint.com/personal/a62181_ualg_pt/Documents/1 UNI STUFF/3y/sistemas paralelos e distribuidos/TP/TP2/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1142" documentId="13_ncr:40001_{8B2FFBFA-E063-42CA-B261-A8A5ED5D86B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D5B8C7DD-97B9-4DE4-8084-043F61BA7604}"/>
+  <xr:revisionPtr revIDLastSave="1338" documentId="13_ncr:40001_{8B2FFBFA-E063-42CA-B261-A8A5ED5D86B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{18B7EA2D-A208-474E-88C9-CCC7802F7171}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1035" windowWidth="25815" windowHeight="14565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1520,28 +1520,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>100000000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1000000000000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10000000000000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>100000000000000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1000000000000000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1E+16</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1E+17</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1E+18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1E+19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1553,28 +1553,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.44</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.488</c:v>
+                  <c:v>0.38300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5759999999999996</c:v>
+                  <c:v>1.206</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.676</c:v>
+                  <c:v>2.9870000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.49</c:v>
+                  <c:v>9.0879999999999992</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>157.78700000000001</c:v>
+                  <c:v>28.146999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>309.69900000000001</c:v>
+                  <c:v>88.393000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1347.9670000000001</c:v>
+                  <c:v>283.93200000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1623,28 +1623,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>100000000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1000000000000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10000000000000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>100000000000000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1000000000000000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1E+16</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1E+17</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1E+18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1E+19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1726,28 +1726,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>100000000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1000000000000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10000000000000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>100000000000000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1000000000000000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1E+16</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1E+17</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1E+18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1E+19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1829,28 +1829,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>100000000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1000000000000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10000000000000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>100000000000000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1000000000000000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1E+16</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1E+17</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1E+18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1E+19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1932,28 +1932,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>100000000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1000000000000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10000000000000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>100000000000000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1000000000000000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1E+16</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1E+17</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1E+18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1E+19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2035,28 +2035,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>100000000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1000000000000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10000000000000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>100000000000000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1000000000000000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1E+16</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1E+17</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1E+18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1E+19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2548,28 +2548,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>100000000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1000000000000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10000000000000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>100000000000000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1000000000000000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1E+16</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1E+17</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1E+18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1E+19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2581,28 +2581,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.33</c:v>
+                  <c:v>0.11600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.04</c:v>
+                  <c:v>0.32100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.573</c:v>
+                  <c:v>1.1399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.641999999999999</c:v>
+                  <c:v>2.8490000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>78.420999999999992</c:v>
+                  <c:v>8.9540000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>222.60399999999998</c:v>
+                  <c:v>28.454999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>644.30499999999995</c:v>
+                  <c:v>89.274000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1225.6179999999999</c:v>
+                  <c:v>279.55799999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2651,28 +2651,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>100000000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1000000000000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10000000000000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>100000000000000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1000000000000000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1E+16</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1E+17</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1E+18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1E+19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2684,28 +2684,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.35199999999999998</c:v>
+                  <c:v>0.112</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.042</c:v>
+                  <c:v>0.33200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7650000000000001</c:v>
+                  <c:v>1.1779999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.256</c:v>
+                  <c:v>2.8220000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.274999999999999</c:v>
+                  <c:v>9.5519999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>148.13499999999999</c:v>
+                  <c:v>29.271999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>459.255</c:v>
+                  <c:v>92.10499999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1207.721</c:v>
+                  <c:v>301.77300000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2754,28 +2754,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>100000000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1000000000000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10000000000000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>100000000000000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1000000000000000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1E+16</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1E+17</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1E+18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1E+19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2787,28 +2787,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.375</c:v>
+                  <c:v>0.13600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0449999999999999</c:v>
+                  <c:v>0.34100000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7530000000000001</c:v>
+                  <c:v>1.1879999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.996</c:v>
+                  <c:v>2.9620000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.005000000000003</c:v>
+                  <c:v>9.7029999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>147.26</c:v>
+                  <c:v>29.31</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>457.43700000000001</c:v>
+                  <c:v>91.55</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1211.577</c:v>
+                  <c:v>286.702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2857,28 +2857,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>100000000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1000000000000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10000000000000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>100000000000000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1000000000000000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1E+16</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1E+17</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1E+18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1E+19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2890,28 +2890,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.41</c:v>
+                  <c:v>0.16700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.25</c:v>
+                  <c:v>0.42499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8639999999999999</c:v>
+                  <c:v>1.214</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.346</c:v>
+                  <c:v>2.9660000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.670999999999999</c:v>
+                  <c:v>9.3789999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>151.74</c:v>
+                  <c:v>28.968</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>474.65600000000001</c:v>
+                  <c:v>89.158000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1237.1759999999999</c:v>
+                  <c:v>280.97500000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2960,28 +2960,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>100000000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1000000000000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10000000000000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>100000000000000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1000000000000000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1E+16</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1E+17</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1E+18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1E+19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2993,28 +2993,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.48499999999999999</c:v>
+                  <c:v>0.17799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1930000000000001</c:v>
+                  <c:v>0.498</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8039999999999998</c:v>
+                  <c:v>1.391</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.308999999999999</c:v>
+                  <c:v>3.12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.423999999999999</c:v>
+                  <c:v>9.4890000000000008</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>151.833</c:v>
+                  <c:v>29.353999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>467.44100000000003</c:v>
+                  <c:v>90.795999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1221.1310000000001</c:v>
+                  <c:v>281.09699999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3063,28 +3063,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>100000000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1000000000000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10000000000000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>100000000000000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1000000000000000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1E+16</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1E+17</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1E+18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1E+19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3096,28 +3096,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.57799999999999996</c:v>
+                  <c:v>0.253</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.31</c:v>
+                  <c:v>0.50600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9020000000000001</c:v>
+                  <c:v>1.2989999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.419</c:v>
+                  <c:v>2.9929999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.642000000000003</c:v>
+                  <c:v>9.3490000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>149.95699999999999</c:v>
+                  <c:v>28.632999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>465.197</c:v>
+                  <c:v>89.366</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1227.2090000000001</c:v>
+                  <c:v>287.01299999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11904,8 +11904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I264" sqref="I264"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12827,7 +12827,7 @@
         <v>0.84615384615384615</v>
       </c>
       <c r="H77" s="12">
-        <f>G77/4*100</f>
+        <f t="shared" ref="H77:H86" si="0">G77/4*100</f>
         <v>21.153846153846153</v>
       </c>
     </row>
@@ -12851,7 +12851,7 @@
         <v>0.7777777777777779</v>
       </c>
       <c r="H78" s="12">
-        <f>G78/4*100</f>
+        <f t="shared" si="0"/>
         <v>19.444444444444446</v>
       </c>
     </row>
@@ -12875,7 +12875,7 @@
         <v>1</v>
       </c>
       <c r="H79" s="12">
-        <f>G79/4*100</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
@@ -12899,7 +12899,7 @@
         <v>1.0999999999999999</v>
       </c>
       <c r="H80" s="12">
-        <f>G80/4*100</f>
+        <f t="shared" si="0"/>
         <v>27.499999999999996</v>
       </c>
     </row>
@@ -12923,7 +12923,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="H81" s="12">
-        <f>G81/4*100</f>
+        <f t="shared" si="0"/>
         <v>22.916666666666664</v>
       </c>
     </row>
@@ -12947,7 +12947,7 @@
         <v>1.3636363636363638</v>
       </c>
       <c r="H82" s="12">
-        <f>G82/4*100</f>
+        <f t="shared" si="0"/>
         <v>34.090909090909093</v>
       </c>
     </row>
@@ -12971,7 +12971,7 @@
         <v>1.6</v>
       </c>
       <c r="H83" s="12">
-        <f>G83/4*100</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -12995,7 +12995,7 @@
         <v>2.0833333333333335</v>
       </c>
       <c r="H84" s="12">
-        <f>G84/4*100</f>
+        <f t="shared" si="0"/>
         <v>52.083333333333336</v>
       </c>
     </row>
@@ -13019,7 +13019,7 @@
         <v>5.1111111111111116</v>
       </c>
       <c r="H85" s="12">
-        <f>G85/4*100</f>
+        <f t="shared" si="0"/>
         <v>127.77777777777779</v>
       </c>
     </row>
@@ -13043,7 +13043,7 @@
         <v>2.5673758865248231</v>
       </c>
       <c r="H86" s="12">
-        <f>G86/4*100</f>
+        <f t="shared" si="0"/>
         <v>64.184397163120579</v>
       </c>
     </row>
@@ -13096,7 +13096,7 @@
         <v>1.0999999999999999</v>
       </c>
       <c r="H92" s="12">
-        <f>G92/4*100</f>
+        <f t="shared" ref="H92:H101" si="1">G92/4*100</f>
         <v>27.499999999999996</v>
       </c>
     </row>
@@ -13120,7 +13120,7 @@
         <v>0.7</v>
       </c>
       <c r="H93" s="12">
-        <f>G93/4*100</f>
+        <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
     </row>
@@ -13144,7 +13144,7 @@
         <v>1</v>
       </c>
       <c r="H94" s="12">
-        <f>G94/4*100</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
@@ -13168,7 +13168,7 @@
         <v>0.54999999999999993</v>
       </c>
       <c r="H95" s="12">
-        <f>G95/4*100</f>
+        <f t="shared" si="1"/>
         <v>13.749999999999998</v>
       </c>
     </row>
@@ -13192,7 +13192,7 @@
         <v>0.54999999999999993</v>
       </c>
       <c r="H96" s="12">
-        <f>G96/4*100</f>
+        <f t="shared" si="1"/>
         <v>13.749999999999998</v>
       </c>
     </row>
@@ -13216,7 +13216,7 @@
         <v>0.75</v>
       </c>
       <c r="H97" s="12">
-        <f>G97/4*100</f>
+        <f t="shared" si="1"/>
         <v>18.75</v>
       </c>
     </row>
@@ -13240,7 +13240,7 @@
         <v>1.5</v>
       </c>
       <c r="H98" s="12">
-        <f>G98/4*100</f>
+        <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
     </row>
@@ -13264,7 +13264,7 @@
         <v>2.7777777777777777</v>
       </c>
       <c r="H99" s="12">
-        <f>G99/4*100</f>
+        <f t="shared" si="1"/>
         <v>69.444444444444443</v>
       </c>
     </row>
@@ -13288,7 +13288,7 @@
         <v>5.75</v>
       </c>
       <c r="H100" s="12">
-        <f>G100/4*100</f>
+        <f t="shared" si="1"/>
         <v>143.75</v>
       </c>
     </row>
@@ -13312,7 +13312,7 @@
         <v>3.3518518518518516</v>
       </c>
       <c r="H101" s="12">
-        <f>G101/4*100</f>
+        <f t="shared" si="1"/>
         <v>83.796296296296291</v>
       </c>
     </row>
@@ -13366,7 +13366,7 @@
         <v>1.0999999999999999</v>
       </c>
       <c r="H108" s="12">
-        <f>G108/4*100</f>
+        <f t="shared" ref="H108:H117" si="2">G108/4*100</f>
         <v>27.499999999999996</v>
       </c>
     </row>
@@ -13390,7 +13390,7 @@
         <v>0.7</v>
       </c>
       <c r="H109" s="12">
-        <f>G109/4*100</f>
+        <f t="shared" si="2"/>
         <v>17.5</v>
       </c>
     </row>
@@ -13414,7 +13414,7 @@
         <v>1</v>
       </c>
       <c r="H110" s="12">
-        <f>G110/4*100</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
     </row>
@@ -13438,7 +13438,7 @@
         <v>0.54999999999999993</v>
       </c>
       <c r="H111" s="12">
-        <f>G111/4*100</f>
+        <f t="shared" si="2"/>
         <v>13.749999999999998</v>
       </c>
     </row>
@@ -13462,7 +13462,7 @@
         <v>0.54999999999999993</v>
       </c>
       <c r="H112" s="12">
-        <f>G112/4*100</f>
+        <f t="shared" si="2"/>
         <v>13.749999999999998</v>
       </c>
     </row>
@@ -13486,7 +13486,7 @@
         <v>0.5</v>
       </c>
       <c r="H113" s="12">
-        <f>G113/4*100</f>
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
     </row>
@@ -13510,7 +13510,7 @@
         <v>0.6</v>
       </c>
       <c r="H114" s="12">
-        <f>G114/4*100</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
@@ -13534,7 +13534,7 @@
         <v>6.25</v>
       </c>
       <c r="H115" s="12">
-        <f>G115/4*100</f>
+        <f t="shared" si="2"/>
         <v>156.25</v>
       </c>
     </row>
@@ -13558,7 +13558,7 @@
         <v>8.9444444444444446</v>
       </c>
       <c r="H116" s="12">
-        <f>G116/4*100</f>
+        <f t="shared" si="2"/>
         <v>223.61111111111111</v>
       </c>
     </row>
@@ -13582,7 +13582,7 @@
         <v>3.2321428571428568</v>
       </c>
       <c r="H117" s="12">
-        <f>G117/4*100</f>
+        <f t="shared" si="2"/>
         <v>80.803571428571416</v>
       </c>
     </row>
@@ -13620,154 +13620,152 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>1000000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="B124">
-        <v>0.44</v>
+        <v>0.16</v>
       </c>
       <c r="C124">
-        <v>1.734</v>
-      </c>
-      <c r="D124" t="s">
-        <v>7</v>
+        <v>0.5</v>
+      </c>
+      <c r="D124">
+        <v>1.6E-2</v>
       </c>
       <c r="E124">
         <f>C124/B124</f>
-        <v>3.9409090909090909</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>10000000000000</v>
+        <v>1000000000000</v>
       </c>
       <c r="B125">
-        <v>1.488</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="C125">
-        <v>5.9219999999999997</v>
+        <v>1.5</v>
       </c>
       <c r="D125">
         <v>1.6E-2</v>
       </c>
       <c r="E125">
-        <f t="shared" ref="E125:E131" si="0">C125/B125</f>
-        <v>3.979838709677419</v>
+        <f t="shared" ref="E125:E131" si="3">C125/B125</f>
+        <v>3.9164490861618799</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>100000000000000</v>
+        <v>10000000000000</v>
       </c>
       <c r="B126">
-        <v>4.5759999999999996</v>
+        <v>1.206</v>
       </c>
       <c r="C126">
-        <v>17.672000000000001</v>
+        <v>4.7190000000000003</v>
       </c>
       <c r="D126">
         <v>1.6E-2</v>
       </c>
       <c r="E126">
-        <f t="shared" si="0"/>
-        <v>3.8618881118881125</v>
+        <f t="shared" si="3"/>
+        <v>3.9129353233830848</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>1000000000000000</v>
+        <v>100000000000000</v>
       </c>
       <c r="B127">
-        <v>13.676</v>
+        <v>2.9870000000000001</v>
       </c>
       <c r="C127">
-        <v>52.578000000000003</v>
+        <v>11.766</v>
       </c>
       <c r="D127">
         <v>3.1E-2</v>
       </c>
       <c r="E127">
-        <f t="shared" si="0"/>
-        <v>3.8445451886516526</v>
+        <f t="shared" si="3"/>
+        <v>3.9390693003013055</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>1E+16</v>
+        <v>1000000000000000</v>
       </c>
       <c r="B128">
-        <v>40.49</v>
+        <v>9.0879999999999992</v>
       </c>
       <c r="C128">
-        <f>2*60+33.891</f>
-        <v>153.89099999999999</v>
+        <v>35.484000000000002</v>
       </c>
       <c r="D128">
-        <v>6.3E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="E128">
-        <f t="shared" si="0"/>
-        <v>3.800716226228698</v>
+        <f t="shared" si="3"/>
+        <v>3.9044894366197189</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>1E+17</v>
+        <v>1E+16</v>
       </c>
       <c r="B129">
-        <f>2*60 + 37.787</f>
-        <v>157.78700000000001</v>
+        <v>28.146999999999998</v>
       </c>
       <c r="C129">
-        <f>10*60+8.25</f>
-        <v>608.25</v>
+        <f>60+48.656</f>
+        <v>108.65600000000001</v>
       </c>
       <c r="D129">
-        <v>0.188</v>
+        <v>6.3E-2</v>
       </c>
       <c r="E129">
-        <f t="shared" si="0"/>
-        <v>3.8548803133337981</v>
+        <f t="shared" si="3"/>
+        <v>3.8603048282232568</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>1E+18</v>
+        <v>1E+17</v>
       </c>
       <c r="B130">
-        <f>8*37+13.699</f>
-        <v>309.69900000000001</v>
+        <f>60+28.393</f>
+        <v>88.393000000000001</v>
       </c>
       <c r="C130">
-        <f>32*60+8.984</f>
-        <v>1928.9839999999999</v>
+        <f>60*5+42.844</f>
+        <v>342.84399999999999</v>
       </c>
       <c r="D130">
-        <v>0.64100000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="E130">
-        <f t="shared" si="0"/>
-        <v>6.2285767793890194</v>
+        <f t="shared" si="3"/>
+        <v>3.878632923421538</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>1E+19</v>
+        <v>1E+18</v>
       </c>
       <c r="B131">
-        <f>22*60+27.967</f>
-        <v>1347.9670000000001</v>
+        <f>4*60+43.932</f>
+        <v>283.93200000000002</v>
       </c>
       <c r="C131">
-        <f>88*60+43.563</f>
-        <v>5323.5630000000001</v>
+        <f>18*60+28.156</f>
+        <v>1108.1559999999999</v>
       </c>
       <c r="D131">
-        <f>2.141</f>
-        <v>2.141</v>
+        <f>0.391</f>
+        <v>0.39100000000000001</v>
       </c>
       <c r="E131">
-        <f t="shared" si="0"/>
-        <v>3.9493273945133671</v>
+        <f t="shared" si="3"/>
+        <v>3.9028922418043752</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -13791,7 +13789,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>1000000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="B135">
         <v>0.28299999999999997</v>
@@ -13809,7 +13807,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>10000000000000</v>
+        <v>1000000000000</v>
       </c>
       <c r="B136">
         <v>1.0309999999999999</v>
@@ -13821,13 +13819,13 @@
         <v>3.1E-2</v>
       </c>
       <c r="E136">
-        <f t="shared" ref="E136:E142" si="1">C136/B136</f>
+        <f t="shared" ref="E136:E142" si="4">C136/B136</f>
         <v>7.4258001939864213</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>100000000000000</v>
+        <v>10000000000000</v>
       </c>
       <c r="B137">
         <v>3.1640000000000001</v>
@@ -13839,13 +13837,13 @@
         <v>4.7E-2</v>
       </c>
       <c r="E137">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.2051201011378003</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>1000000000000000</v>
+        <v>100000000000000</v>
       </c>
       <c r="B138">
         <v>8.8089999999999993</v>
@@ -13858,13 +13856,13 @@
         <v>4.7E-2</v>
       </c>
       <c r="E138">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.6360540356453637</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>1E+16</v>
+        <v>1000000000000000</v>
       </c>
       <c r="B139">
         <f>26.272</f>
@@ -13878,13 +13876,13 @@
         <v>3.1E-2</v>
       </c>
       <c r="E139">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.697700974421438</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>1E+17</v>
+        <v>1E+16</v>
       </c>
       <c r="B140">
         <f>60+38.431</f>
@@ -13904,7 +13902,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>1E+18</v>
+        <v>1E+17</v>
       </c>
       <c r="B141">
         <f>5*42 + 42.232</f>
@@ -13918,13 +13916,13 @@
         <v>2.141</v>
       </c>
       <c r="E141">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.4947310412635986</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>1E+19</v>
+        <v>1E+18</v>
       </c>
       <c r="B142">
         <f>15*60+54.517</f>
@@ -13939,7 +13937,7 @@
         <v>3.6720000000000002</v>
       </c>
       <c r="E142">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.4824984782879707</v>
       </c>
     </row>
@@ -13967,7 +13965,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>1000000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="B147" s="4">
         <v>0.27700000000000002</v>
@@ -13985,7 +13983,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>10000000000000</v>
+        <v>1000000000000</v>
       </c>
       <c r="B148" s="4">
         <v>0.92500000000000004</v>
@@ -13997,13 +13995,13 @@
         <v>1.6E-2</v>
       </c>
       <c r="E148">
-        <f t="shared" ref="E148:E154" si="2">C148/B148</f>
+        <f t="shared" ref="E148:E154" si="5">C148/B148</f>
         <v>5.9124324324324329</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>100000000000000</v>
+        <v>10000000000000</v>
       </c>
       <c r="B149" s="4">
         <v>3.1789999999999998</v>
@@ -14015,13 +14013,13 @@
         <v>3.1E-2</v>
       </c>
       <c r="E149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5.8490091223655245</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>1000000000000000</v>
+        <v>100000000000000</v>
       </c>
       <c r="B150" s="4">
         <v>8.7710000000000008</v>
@@ -14035,13 +14033,13 @@
         <v>4.7E-2</v>
       </c>
       <c r="E150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6.9280583741876631</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>1E+16</v>
+        <v>1000000000000000</v>
       </c>
       <c r="B151" s="4">
         <f>26.867</f>
@@ -14055,13 +14053,13 @@
         <v>3.1E-2</v>
       </c>
       <c r="E151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7.260877656604757</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>1E+17</v>
+        <v>1E+16</v>
       </c>
       <c r="B152" s="4">
         <f>60+38.139</f>
@@ -14082,7 +14080,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>1E+18</v>
+        <v>1E+17</v>
       </c>
       <c r="B153" s="4">
         <f>5*60+13.463</f>
@@ -14096,13 +14094,13 @@
         <v>1.4530000000000001</v>
       </c>
       <c r="E153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7.5413110957274059</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>1E+19</v>
+        <v>1E+18</v>
       </c>
       <c r="B154" s="4">
         <f>15*60+36.473</f>
@@ -14117,7 +14115,7 @@
         <v>3.5310000000000001</v>
       </c>
       <c r="E154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7.6010264043917983</v>
       </c>
     </row>
@@ -14145,7 +14143,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>1000000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="B159" s="4">
         <v>0.29199999999999998</v>
@@ -14163,7 +14161,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>10000000000000</v>
+        <v>1000000000000</v>
       </c>
       <c r="B160" s="4">
         <v>0.92900000000000005</v>
@@ -14175,13 +14173,13 @@
         <v>1.6E-2</v>
       </c>
       <c r="E160">
-        <f t="shared" ref="E160:E166" si="3">C160/B160</f>
+        <f t="shared" ref="E160:E166" si="6">C160/B160</f>
         <v>5.8869752421959092</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>100000000000000</v>
+        <v>10000000000000</v>
       </c>
       <c r="B161" s="4">
         <v>3.0219999999999998</v>
@@ -14193,13 +14191,13 @@
         <v>7.8E-2</v>
       </c>
       <c r="E161">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.142620780939775</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>1000000000000000</v>
+        <v>100000000000000</v>
       </c>
       <c r="B162" s="4">
         <v>8.5210000000000008</v>
@@ -14212,13 +14210,13 @@
         <v>7.8E-2</v>
       </c>
       <c r="E162">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.1404764698978989</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>1E+16</v>
+        <v>1000000000000000</v>
       </c>
       <c r="B163" s="4">
         <f>26.424</f>
@@ -14232,13 +14230,13 @@
         <v>0.125</v>
       </c>
       <c r="E163">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.415152891310929</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>1E+17</v>
+        <v>1E+16</v>
       </c>
       <c r="B164" s="4">
         <f>60+37.493</f>
@@ -14258,7 +14256,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>1E+18</v>
+        <v>1E+17</v>
       </c>
       <c r="B165" s="4">
         <f>5*60+11.467</f>
@@ -14272,13 +14270,13 @@
         <v>0.96899999999999997</v>
       </c>
       <c r="E165">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.6509903135805724</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>1E+19</v>
+        <v>1E+18</v>
       </c>
       <c r="B166" s="4">
         <f>15*50+30.685</f>
@@ -14292,7 +14290,7 @@
         <v>4.125</v>
       </c>
       <c r="E166">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9.0846103101763198</v>
       </c>
     </row>
@@ -14320,7 +14318,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>1000000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="B172" s="4">
         <v>0.312</v>
@@ -14338,7 +14336,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>10000000000000</v>
+        <v>1000000000000</v>
       </c>
       <c r="B173" s="4">
         <v>1.028</v>
@@ -14351,13 +14349,13 @@
         <v>7</v>
       </c>
       <c r="E173">
-        <f t="shared" ref="E173:E179" si="4">C173/B173</f>
+        <f t="shared" ref="E173:E179" si="7">C173/B173</f>
         <v>5.7305447470817121</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>100000000000000</v>
+        <v>10000000000000</v>
       </c>
       <c r="B174" s="4">
         <v>3.18</v>
@@ -14369,13 +14367,13 @@
         <v>7.8E-2</v>
       </c>
       <c r="E174">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6.0830188679245287</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>1000000000000000</v>
+        <v>100000000000000</v>
       </c>
       <c r="B175" s="4">
         <v>8.5980000000000008</v>
@@ -14388,13 +14386,13 @@
         <v>6.3E-2</v>
       </c>
       <c r="E175">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7.1909746452663406</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>1E+16</v>
+        <v>1000000000000000</v>
       </c>
       <c r="B176" s="4">
         <v>26.736000000000001</v>
@@ -14407,13 +14405,13 @@
         <v>6.3E-2</v>
       </c>
       <c r="E176">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7.2567324955116694</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>1E+17</v>
+        <v>1E+16</v>
       </c>
       <c r="B177" s="4">
         <f>60*1 + 35.704</f>
@@ -14433,7 +14431,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>1E+18</v>
+        <v>1E+17</v>
       </c>
       <c r="B178" s="4">
         <f>5*60+1.96</f>
@@ -14448,13 +14446,13 @@
         <v>0.34399999999999997</v>
       </c>
       <c r="E178">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7.8427208901841317</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>1E+19</v>
+        <v>1E+18</v>
       </c>
       <c r="B179" s="4">
         <f>14*60+54.945</f>
@@ -14469,7 +14467,7 @@
         <v>1.0469999999999999</v>
       </c>
       <c r="E179">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7.8543061305443338</v>
       </c>
     </row>
@@ -14497,7 +14495,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>1000000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="B184" s="4">
         <v>0.27200000000000002</v>
@@ -14515,7 +14513,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>10000000000000</v>
+        <v>1000000000000</v>
       </c>
       <c r="B185" s="4">
         <v>0.85799999999999998</v>
@@ -14527,13 +14525,13 @@
         <v>0.14099999999999999</v>
       </c>
       <c r="E185">
-        <f t="shared" ref="E185:E191" si="5">C185/B185</f>
+        <f t="shared" ref="E185:E191" si="8">C185/B185</f>
         <v>6.1923076923076925</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>100000000000000</v>
+        <v>10000000000000</v>
       </c>
       <c r="B186" s="4">
         <v>3.0350000000000001</v>
@@ -14545,13 +14543,13 @@
         <v>0.109</v>
       </c>
       <c r="E186">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25502471169687</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>1000000000000000</v>
+        <v>100000000000000</v>
       </c>
       <c r="B187" s="4">
         <v>7.9870000000000001</v>
@@ -14564,13 +14562,13 @@
         <v>0.17199999999999999</v>
       </c>
       <c r="E187">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7.709778389883561</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>1E+16</v>
+        <v>1000000000000000</v>
       </c>
       <c r="B188" s="4">
         <v>24.951000000000001</v>
@@ -14583,13 +14581,13 @@
         <v>4.7E-2</v>
       </c>
       <c r="E188">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7.7501903731313373</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>1E+17</v>
+        <v>1E+16</v>
       </c>
       <c r="B189" s="4">
         <f>60+32.854</f>
@@ -14610,7 +14608,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>1E+18</v>
+        <v>1E+17</v>
       </c>
       <c r="B190" s="4">
         <f>5*60+1.717</f>
@@ -14625,13 +14623,13 @@
         <v>0.39100000000000001</v>
       </c>
       <c r="E190">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7.8471183261135433</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>1E+19</v>
+        <v>1E+18</v>
       </c>
       <c r="B191" s="4">
         <f>14*60+53.394</f>
@@ -14645,7 +14643,7 @@
         <v>1.1879999999999999</v>
       </c>
       <c r="E191">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7.8625723924718542</v>
       </c>
     </row>
@@ -14678,155 +14676,151 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>1000000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="B198" s="4">
-        <v>0.33</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="C198" s="4">
-        <v>1.304</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="D198" s="4">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E198">
         <f>C198/B198</f>
-        <v>3.9515151515151516</v>
+        <v>3.8620689655172411</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>10000000000000</v>
+        <v>1000000000000</v>
       </c>
       <c r="B199" s="4">
-        <v>1.04</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="C199" s="4">
-        <v>4.1440000000000001</v>
+        <v>1.264</v>
       </c>
       <c r="D199" s="4">
-        <v>0.04</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E199">
-        <f t="shared" ref="E199:E205" si="6">C199/B199</f>
-        <v>3.9846153846153847</v>
+        <f t="shared" ref="E199:E205" si="9">C199/B199</f>
+        <v>3.9376947040498442</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>100000000000000</v>
+        <v>10000000000000</v>
       </c>
       <c r="B200" s="4">
-        <v>3.573</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="C200" s="4">
-        <v>13.916</v>
+        <v>4.3</v>
       </c>
       <c r="D200" s="4">
-        <v>1.2E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E200">
-        <f t="shared" si="6"/>
-        <v>3.8947663028267563</v>
+        <f t="shared" si="9"/>
+        <v>3.7719298245614037</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>1000000000000000</v>
+        <v>100000000000000</v>
       </c>
       <c r="B201" s="4">
-        <v>13.641999999999999</v>
+        <v>2.8490000000000002</v>
       </c>
       <c r="C201" s="4">
-        <v>43.695999999999998</v>
-      </c>
-      <c r="D201" s="4" t="s">
-        <v>7</v>
+        <v>11.412000000000001</v>
+      </c>
+      <c r="D201" s="4">
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E201">
-        <f t="shared" si="6"/>
-        <v>3.2030494062454187</v>
+        <f t="shared" si="9"/>
+        <v>4.0056160056160053</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>1E+16</v>
+        <v>1000000000000000</v>
       </c>
       <c r="B202" s="4">
-        <f>60+18.421</f>
-        <v>78.420999999999992</v>
+        <v>8.9540000000000006</v>
       </c>
       <c r="C202" s="4">
-        <f>120+20.764</f>
-        <v>140.76400000000001</v>
+        <v>35.835999999999999</v>
       </c>
       <c r="D202" s="4">
-        <v>3.2000000000000001E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E202">
-        <f t="shared" si="6"/>
-        <v>1.7949783858915345</v>
+        <f t="shared" si="9"/>
+        <v>4.0022336385972741</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>1E+17</v>
+        <v>1E+16</v>
       </c>
       <c r="B203" s="4">
-        <f>3*60+42.604</f>
-        <v>222.60399999999998</v>
+        <v>28.454999999999998</v>
       </c>
       <c r="C203" s="4">
-        <f>9*60+53.792</f>
-        <v>593.79200000000003</v>
-      </c>
-      <c r="D203" s="4">
-        <v>8.7999999999999995E-2</v>
+        <f>60+53.832</f>
+        <v>113.83199999999999</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E203">
         <f>C203/B203</f>
-        <v>2.6674812671829802</v>
+        <v>4.0004217185028992</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>1E+18</v>
+        <v>1E+17</v>
       </c>
       <c r="B204" s="4">
-        <f>10*60+44.305</f>
-        <v>644.30499999999995</v>
+        <f>60+29.274</f>
+        <v>89.274000000000001</v>
       </c>
       <c r="C204" s="4">
-        <f>30*60+50.184</f>
-        <v>1850.184</v>
+        <f>5*60+55.964</f>
+        <v>355.964</v>
       </c>
       <c r="D204" s="4">
-        <f>5.672</f>
-        <v>5.6719999999999997</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E204">
-        <f t="shared" si="6"/>
-        <v>2.8715965264897836</v>
+        <f t="shared" si="9"/>
+        <v>3.9873199363756524</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>1E+19</v>
+        <v>1E+18</v>
       </c>
       <c r="B205" s="4">
-        <f>20*60+25.618</f>
-        <v>1225.6179999999999</v>
+        <f>4*60+39.558</f>
+        <v>279.55799999999999</v>
       </c>
       <c r="C205" s="4">
-        <f>80*60+31.24</f>
-        <v>4831.24</v>
+        <f>18*60+38.82</f>
+        <v>1118.82</v>
       </c>
       <c r="D205" s="4">
         <v>0.39600000000000002</v>
       </c>
       <c r="E205">
-        <f t="shared" si="6"/>
-        <v>3.9418807491404335</v>
+        <f t="shared" si="9"/>
+        <v>4.0021033202412379</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -14853,155 +14847,152 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>1000000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="B210" s="4">
-        <v>0.35199999999999998</v>
+        <v>0.112</v>
       </c>
       <c r="C210" s="4">
-        <v>1.212</v>
-      </c>
-      <c r="D210" s="4">
-        <v>1.2E-2</v>
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E210">
         <f>C210/B210</f>
-        <v>3.4431818181818183</v>
+        <v>3.2857142857142856</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>10000000000000</v>
+        <v>1000000000000</v>
       </c>
       <c r="B211" s="4">
-        <v>1.042</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="C211" s="4">
-        <v>3.98</v>
+        <v>1.1160000000000001</v>
       </c>
       <c r="D211" s="4">
-        <v>8.0000000000000002E-3</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E211">
-        <f t="shared" ref="E211:E217" si="7">C211/B211</f>
-        <v>3.81957773512476</v>
+        <f t="shared" ref="E211:E217" si="10">C211/B211</f>
+        <v>3.3614457831325302</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>100000000000000</v>
+        <v>10000000000000</v>
       </c>
       <c r="B212" s="4">
-        <v>3.7650000000000001</v>
+        <v>1.1779999999999999</v>
       </c>
       <c r="C212" s="4">
-        <v>13.156000000000001</v>
+        <v>3.8319999999999999</v>
       </c>
       <c r="D212" s="4">
-        <v>8.0000000000000002E-3</v>
+        <v>0.02</v>
       </c>
       <c r="E212">
-        <f t="shared" si="7"/>
-        <v>3.4942895086321379</v>
+        <f t="shared" si="10"/>
+        <v>3.2529711375212225</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>1000000000000000</v>
+        <v>100000000000000</v>
       </c>
       <c r="B213" s="4">
-        <v>11.256</v>
+        <v>2.8220000000000001</v>
       </c>
       <c r="C213" s="4">
-        <v>42.276000000000003</v>
+        <v>11.212</v>
       </c>
       <c r="D213" s="4">
-        <v>2.8000000000000001E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E213">
-        <f t="shared" si="7"/>
-        <v>3.7558635394456292</v>
+        <f t="shared" si="10"/>
+        <v>3.9730687455705174</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>1E+16</v>
+        <v>1000000000000000</v>
       </c>
       <c r="B214" s="4">
-        <v>35.274999999999999</v>
+        <v>9.5519999999999996</v>
       </c>
       <c r="C214" s="4">
-        <f>120+16.824</f>
-        <v>136.82400000000001</v>
+        <v>35.872</v>
       </c>
       <c r="D214" s="4">
-        <v>1.2E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="E214">
-        <f t="shared" si="7"/>
-        <v>3.8787810063784556</v>
+        <f t="shared" si="10"/>
+        <v>3.7554438860971526</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>1E+17</v>
+        <v>1E+16</v>
       </c>
       <c r="B215" s="4">
-        <f>120+28.135</f>
-        <v>148.13499999999999</v>
+        <v>29.271999999999998</v>
       </c>
       <c r="C215" s="4">
-        <f>9*60+47.36</f>
-        <v>587.36</v>
+        <f>60+52.836</f>
+        <v>112.836</v>
       </c>
       <c r="D215" s="4">
-        <f>0.028</f>
-        <v>2.8000000000000001E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E215">
         <f>C215/B215</f>
-        <v>3.9650318965808218</v>
+        <v>3.8547417327138565</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>1E+18</v>
+        <v>1E+17</v>
       </c>
       <c r="B216" s="4">
-        <f>7*60+39.255</f>
-        <v>459.255</v>
+        <f>60+32.105</f>
+        <v>92.10499999999999</v>
       </c>
       <c r="C216" s="4">
-        <f>30*60+32.532</f>
-        <v>1832.5319999999999</v>
+        <f>6*60+2.508</f>
+        <v>362.50799999999998</v>
       </c>
       <c r="D216" s="4">
         <f>0.024</f>
         <v>2.4E-2</v>
       </c>
       <c r="E216">
-        <f t="shared" si="7"/>
-        <v>3.9902276513048305</v>
+        <f t="shared" si="10"/>
+        <v>3.9358123880353948</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>1E+19</v>
+        <v>1E+18</v>
       </c>
       <c r="B217" s="4">
-        <f>20*60+7.721</f>
-        <v>1207.721</v>
+        <f>5*60+1.773</f>
+        <v>301.77300000000002</v>
       </c>
       <c r="C217" s="4">
-        <f>80*60+21.036</f>
-        <v>4821.0360000000001</v>
+        <f>20*60+2.824</f>
+        <v>1202.8240000000001</v>
       </c>
       <c r="D217" s="4">
         <v>0.92400000000000004</v>
       </c>
       <c r="E217">
-        <f t="shared" si="7"/>
-        <v>3.9918457988227414</v>
+        <f t="shared" si="10"/>
+        <v>3.9858569189423836</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -15028,155 +15019,153 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>1000000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="B222" s="4">
-        <v>0.375</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="C222" s="4">
-        <v>1.256</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="D222" s="4">
         <v>2.4E-2</v>
       </c>
       <c r="E222">
         <f>C222/B222</f>
-        <v>3.3493333333333335</v>
+        <v>2.8235294117647056</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>10000000000000</v>
+        <v>1000000000000</v>
       </c>
       <c r="B223" s="4">
-        <v>1.0449999999999999</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="C223" s="4">
-        <v>3.94</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="D223" s="4">
-        <v>2.4E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E223">
-        <f t="shared" ref="E223:E229" si="8">C223/B223</f>
-        <v>3.7703349282296652</v>
+        <f t="shared" ref="E223:E229" si="11">C223/B223</f>
+        <v>3.4017595307917885</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>100000000000000</v>
+        <v>10000000000000</v>
       </c>
       <c r="B224" s="4">
-        <v>3.7530000000000001</v>
+        <v>1.1879999999999999</v>
       </c>
       <c r="C224" s="4">
-        <v>13.295999999999999</v>
+        <v>3.8039999999999998</v>
       </c>
       <c r="D224" s="4">
-        <v>3.5999999999999997E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="E224">
-        <f t="shared" si="8"/>
-        <v>3.5427657873701035</v>
+        <f t="shared" si="11"/>
+        <v>3.202020202020202</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>1000000000000000</v>
+        <v>100000000000000</v>
       </c>
       <c r="B225" s="4">
-        <v>10.996</v>
+        <v>2.9620000000000002</v>
       </c>
       <c r="C225" s="4">
-        <v>42.508000000000003</v>
+        <v>11.26</v>
       </c>
       <c r="D225" s="4">
-        <v>0.02</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E225">
-        <f t="shared" si="8"/>
-        <v>3.8657693706802476</v>
+        <f t="shared" si="11"/>
+        <v>3.8014854827819038</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>1E+16</v>
+        <v>1000000000000000</v>
       </c>
       <c r="B226" s="4">
-        <v>35.005000000000003</v>
+        <v>9.7029999999999994</v>
       </c>
       <c r="C226" s="4">
-        <f>120+17.54</f>
-        <v>137.54</v>
+        <v>37.28</v>
       </c>
       <c r="D226" s="4">
-        <v>4.0000000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E226">
-        <f t="shared" si="8"/>
-        <v>3.9291529781459786</v>
+        <f t="shared" si="11"/>
+        <v>3.8421106874162634</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>1E+17</v>
+        <v>1E+16</v>
       </c>
       <c r="B227" s="4">
-        <f>120+27.26</f>
-        <v>147.26</v>
+        <v>29.31</v>
       </c>
       <c r="C227" s="4">
-        <f>9*60+47.496</f>
-        <v>587.49599999999998</v>
+        <f>60+55.476</f>
+        <v>115.476</v>
       </c>
       <c r="D227" s="4">
-        <f>0.036</f>
-        <v>3.5999999999999997E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="E227">
         <f>C227/B227</f>
-        <v>3.9895151432839877</v>
+        <v>3.9398157625383829</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>1E+18</v>
+        <v>1E+17</v>
       </c>
       <c r="B228" s="4">
-        <f>7*60+37.437</f>
-        <v>457.43700000000001</v>
+        <f>60+31.55</f>
+        <v>91.55</v>
       </c>
       <c r="C228" s="4">
-        <f>30*60+29.496</f>
-        <v>1829.4960000000001</v>
+        <f>60*6+4.044</f>
+        <v>364.04399999999998</v>
       </c>
       <c r="D228" s="4">
-        <v>5.1999999999999998E-2</v>
+        <f>0.044</f>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="E228">
-        <f t="shared" si="8"/>
-        <v>3.9994491044668448</v>
+        <f t="shared" si="11"/>
+        <v>3.9764500273074823</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>1E+19</v>
+        <v>1E+18</v>
       </c>
       <c r="B229" s="4">
-        <f>20*60+11.577</f>
-        <v>1211.577</v>
+        <f>4*60+46.702</f>
+        <v>286.702</v>
       </c>
       <c r="C229" s="4">
-        <f>80*60+11.577</f>
-        <v>4811.5770000000002</v>
+        <f>19*60+5.12</f>
+        <v>1145.1199999999999</v>
       </c>
       <c r="D229" s="4">
         <f>0.052</f>
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="E229">
-        <f t="shared" si="8"/>
-        <v>3.9713340547072122</v>
+        <f t="shared" si="11"/>
+        <v>3.9941123535936263</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -15203,154 +15192,151 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>1000000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="B234" s="4">
-        <v>0.41</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="C234" s="4">
-        <v>0.92400000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="D234" s="4">
-        <v>0.372</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="E234">
         <f>C234/B234</f>
-        <v>2.2536585365853661</v>
+        <v>2.3952095808383231</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>10000000000000</v>
+        <v>1000000000000</v>
       </c>
       <c r="B235" s="4">
-        <v>1.25</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="C235" s="4">
-        <v>3.7440000000000002</v>
+        <v>1.264</v>
       </c>
       <c r="D235" s="4">
-        <v>0.621</v>
+        <v>0.04</v>
       </c>
       <c r="E235">
-        <f t="shared" ref="E235:E241" si="9">C235/B235</f>
-        <v>2.9952000000000001</v>
+        <f t="shared" ref="E235:E241" si="12">C235/B235</f>
+        <v>2.9741176470588235</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>100000000000000</v>
+        <v>10000000000000</v>
       </c>
       <c r="B236" s="4">
-        <v>3.8639999999999999</v>
+        <v>1.214</v>
       </c>
       <c r="C236" s="4">
-        <v>11.968</v>
+        <v>3.8039999999999998</v>
       </c>
       <c r="D236" s="4">
-        <v>1.9359999999999999</v>
+        <v>0.08</v>
       </c>
       <c r="E236">
-        <f t="shared" si="9"/>
-        <v>3.0973084886128364</v>
+        <f t="shared" si="12"/>
+        <v>3.1334431630971995</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>1000000000000000</v>
+        <v>100000000000000</v>
       </c>
       <c r="B237" s="4">
-        <v>11.346</v>
+        <v>2.9660000000000002</v>
       </c>
       <c r="C237" s="4">
-        <v>33.872</v>
+        <v>11.316000000000001</v>
       </c>
       <c r="D237" s="4">
-        <v>10.156000000000001</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E237">
-        <f t="shared" si="9"/>
-        <v>2.9853692931429578</v>
+        <f t="shared" si="12"/>
+        <v>3.815239379635873</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>1E+16</v>
+        <v>1000000000000000</v>
       </c>
       <c r="B238" s="4">
-        <v>35.670999999999999</v>
+        <v>9.3789999999999996</v>
       </c>
       <c r="C238" s="4">
-        <f>120+14.576</f>
-        <v>134.57599999999999</v>
+        <v>36.380000000000003</v>
       </c>
       <c r="D238" s="4">
-        <v>6.62</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E238">
-        <f t="shared" si="9"/>
-        <v>3.7727005130217823</v>
+        <f t="shared" si="12"/>
+        <v>3.8788783452393649</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>1E+17</v>
+        <v>1E+16</v>
       </c>
       <c r="B239" s="4">
-        <f>120+31.74</f>
-        <v>151.74</v>
+        <v>28.968</v>
       </c>
       <c r="C239" s="4">
-        <f>9*60+47.972</f>
-        <v>587.97199999999998</v>
+        <f>60+54.628</f>
+        <v>114.628</v>
       </c>
       <c r="D239" s="4">
-        <v>11.407999999999999</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="E239">
         <f>C239/B239</f>
-        <v>3.8748649004876761</v>
+        <v>3.9570560618613642</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>1E+18</v>
+        <v>1E+17</v>
       </c>
       <c r="B240" s="4">
-        <f>7*60+54.656</f>
-        <v>474.65600000000001</v>
+        <f>60+29.158</f>
+        <v>89.158000000000001</v>
       </c>
       <c r="C240" s="4">
-        <f>31*60+5.91</f>
-        <v>1865.91</v>
+        <f>60*5+47.824</f>
+        <v>347.82400000000001</v>
       </c>
       <c r="D240" s="4">
-        <v>11.94</v>
+        <v>7.72</v>
       </c>
       <c r="E240">
-        <f t="shared" si="9"/>
-        <v>3.9310785073821886</v>
+        <f t="shared" si="12"/>
+        <v>3.9012090894815947</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>1E+19</v>
+        <v>1E+18</v>
       </c>
       <c r="B241" s="4">
-        <f>20*60+37.176</f>
-        <v>1237.1759999999999</v>
+        <f>4*60+40.975</f>
+        <v>280.97500000000002</v>
       </c>
       <c r="C241" s="4">
-        <f>76*60+23.568</f>
-        <v>4583.5680000000002</v>
+        <f>18*60+43.384</f>
+        <v>1123.384</v>
       </c>
       <c r="D241" s="4">
-        <f>5*60+55.34</f>
-        <v>355.34000000000003</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="E241">
-        <f t="shared" si="9"/>
-        <v>3.7048633339153043</v>
+        <f t="shared" si="12"/>
+        <v>3.9981635376812883</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -15377,155 +15363,151 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>1000000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="B246" s="4">
-        <v>0.48499999999999999</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="C246" s="4">
-        <v>1.24</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="D246" s="4">
-        <v>0.21199999999999999</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="E246">
         <f>C246/B246</f>
-        <v>2.5567010309278353</v>
+        <v>2.292134831460674</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>10000000000000</v>
+        <v>1000000000000</v>
       </c>
       <c r="B247" s="4">
-        <v>1.1930000000000001</v>
+        <v>0.498</v>
       </c>
       <c r="C247" s="4">
-        <v>4.0960000000000001</v>
+        <v>1.3320000000000001</v>
       </c>
       <c r="D247" s="4">
-        <v>0.128</v>
+        <v>0.08</v>
       </c>
       <c r="E247">
-        <f t="shared" ref="E247:E253" si="10">C247/B247</f>
-        <v>3.4333612740989103</v>
+        <f t="shared" ref="E247:E253" si="13">C247/B247</f>
+        <v>2.6746987951807228</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>100000000000000</v>
+        <v>10000000000000</v>
       </c>
       <c r="B248" s="4">
-        <f>3.804</f>
-        <v>3.8039999999999998</v>
+        <v>1.391</v>
       </c>
       <c r="C248" s="4">
-        <v>13.667999999999999</v>
+        <v>0.41880000000000001</v>
       </c>
       <c r="D248" s="4">
-        <v>9.1999999999999998E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="E248">
-        <f t="shared" si="10"/>
-        <v>3.5930599369085172</v>
+        <f t="shared" si="13"/>
+        <v>0.30107836089144502</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>1000000000000000</v>
+        <v>100000000000000</v>
       </c>
       <c r="B249" s="4">
-        <v>11.308999999999999</v>
+        <v>3.12</v>
       </c>
       <c r="C249" s="4">
-        <v>43.595999999999997</v>
+        <v>11.784000000000001</v>
       </c>
       <c r="D249" s="4">
-        <v>0.08</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="E249">
-        <f t="shared" si="10"/>
-        <v>3.8549827570961179</v>
+        <f t="shared" si="13"/>
+        <v>3.7769230769230768</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>1E+16</v>
+        <v>1000000000000000</v>
       </c>
       <c r="B250" s="4">
-        <v>35.423999999999999</v>
+        <v>9.4890000000000008</v>
       </c>
       <c r="C250" s="4">
-        <f>2*60+20.292</f>
-        <v>140.292</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="D250" s="4">
-        <v>0.128</v>
+        <v>0.12</v>
       </c>
       <c r="E250">
-        <f t="shared" si="10"/>
-        <v>3.9603658536585367</v>
+        <f t="shared" si="13"/>
+        <v>3.8781747286331534</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>1E+17</v>
+        <v>1E+16</v>
       </c>
       <c r="B251" s="4">
-        <f>2*60+31.833</f>
-        <v>151.833</v>
+        <v>29.353999999999999</v>
       </c>
       <c r="C251" s="4">
-        <f>10*60+4.172</f>
-        <v>604.17200000000003</v>
+        <f>60+56.288</f>
+        <v>116.288</v>
       </c>
       <c r="D251" s="4">
-        <v>0.08</v>
+        <v>0.112</v>
       </c>
       <c r="E251">
         <f>C251/B251</f>
-        <v>3.9791876601265868</v>
+        <v>3.9615725284458678</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>1E+18</v>
+        <v>1E+17</v>
       </c>
       <c r="B252" s="4">
-        <f>7*60+47.441</f>
-        <v>467.44100000000003</v>
+        <f>60+30.796</f>
+        <v>90.795999999999992</v>
       </c>
       <c r="C252" s="4">
-        <f>31*60+9.856</f>
-        <v>1869.856</v>
+        <f>6*60+2.004</f>
+        <v>362.00400000000002</v>
       </c>
       <c r="D252" s="4">
-        <v>0.248</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="E252">
-        <f t="shared" si="10"/>
-        <v>4.0001968162826964</v>
+        <f t="shared" si="13"/>
+        <v>3.987003832767964</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>1E+19</v>
+        <v>1E+18</v>
       </c>
       <c r="B253" s="4">
-        <f>20*60+21.131</f>
-        <v>1221.1310000000001</v>
+        <f>4*60+41.097</f>
+        <v>281.09699999999998</v>
       </c>
       <c r="C253" s="4">
-        <f>82*60+7.28</f>
-        <v>4927.28</v>
+        <f>18*60+43.904</f>
+        <v>1123.904</v>
       </c>
       <c r="D253" s="4">
-        <f>0.216</f>
-        <v>0.216</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E253">
-        <f t="shared" si="10"/>
-        <v>4.0350134424562141</v>
+        <f t="shared" si="13"/>
+        <v>3.9982781744380058</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -15552,156 +15534,152 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>1000000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="B258" s="4">
-        <v>0.57799999999999996</v>
+        <v>0.253</v>
       </c>
       <c r="C258" s="4">
-        <v>1.468</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="D258" s="4">
-        <v>0.17199999999999999</v>
+        <v>228</v>
       </c>
       <c r="E258">
         <f>C258/B258</f>
-        <v>2.5397923875432529</v>
+        <v>1.5335968379446641</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>10000000000000</v>
+        <v>1000000000000</v>
       </c>
       <c r="B259" s="4">
-        <v>1.31</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="C259" s="4">
-        <v>4.3159999999999998</v>
+        <v>1.228</v>
       </c>
       <c r="D259" s="4">
-        <v>0.13600000000000001</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="E259">
-        <f t="shared" ref="E259:E265" si="11">C259/B259</f>
-        <v>3.2946564885496179</v>
+        <f t="shared" ref="E259:E265" si="14">C259/B259</f>
+        <v>2.426877470355731</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>100000000000000</v>
+        <v>10000000000000</v>
       </c>
       <c r="B260">
-        <v>3.9020000000000001</v>
+        <v>1.2989999999999999</v>
       </c>
       <c r="C260">
-        <v>13.776</v>
+        <v>3.8119999999999998</v>
       </c>
       <c r="D260">
-        <v>0.16800000000000001</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="E260">
-        <f t="shared" si="11"/>
-        <v>3.5304971809328549</v>
+        <f t="shared" si="14"/>
+        <v>2.9345650500384912</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>1000000000000000</v>
+        <v>100000000000000</v>
       </c>
       <c r="B261" s="4">
-        <v>11.419</v>
+        <v>2.9929999999999999</v>
       </c>
       <c r="C261" s="4">
-        <v>43.956000000000003</v>
+        <v>11.16</v>
       </c>
       <c r="D261" s="4">
-        <v>0.18</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="E261">
-        <f t="shared" si="11"/>
-        <v>3.8493738505998776</v>
+        <f t="shared" si="14"/>
+        <v>3.7287003007016373</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>1E+16</v>
+        <v>1000000000000000</v>
       </c>
       <c r="B262" s="4">
-        <v>35.642000000000003</v>
+        <v>9.3490000000000002</v>
       </c>
       <c r="C262" s="4">
-        <f>2*60+20.796</f>
-        <v>140.79599999999999</v>
+        <v>35.616</v>
       </c>
       <c r="D262" s="4">
-        <v>0.152</v>
+        <v>0.156</v>
       </c>
       <c r="E262">
-        <f t="shared" si="11"/>
-        <v>3.9502833735480607</v>
+        <f t="shared" si="14"/>
+        <v>3.8096053053802543</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>1E+17</v>
+        <v>1E+16</v>
       </c>
       <c r="B263" s="4">
-        <f>120+29.957</f>
-        <v>149.95699999999999</v>
+        <v>28.632999999999999</v>
       </c>
       <c r="C263" s="4">
-        <f>9*60+58.032</f>
-        <v>598.03200000000004</v>
+        <f>60+53.016</f>
+        <v>113.01599999999999</v>
       </c>
       <c r="D263" s="4">
-        <f>0.248</f>
-        <v>0.248</v>
+        <v>0.18</v>
       </c>
       <c r="E263">
         <f>C263/B263</f>
-        <v>3.9880232333268877</v>
+        <v>3.947054098417909</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>1E+18</v>
+        <v>1E+17</v>
       </c>
       <c r="B264" s="4">
-        <f>7*60+45.197</f>
-        <v>465.197</v>
+        <f>60+29.366</f>
+        <v>89.366</v>
       </c>
       <c r="C264" s="4">
-        <f>29*60+44.236</f>
-        <v>1784.2360000000001</v>
+        <f>5*60+55.744</f>
+        <v>355.74400000000003</v>
       </c>
       <c r="D264" s="4">
-        <f>60+10.704</f>
-        <v>70.704000000000008</v>
+        <f>0.212</f>
+        <v>0.21199999999999999</v>
       </c>
       <c r="E264">
-        <f t="shared" si="11"/>
-        <v>3.8354417590827112</v>
+        <f t="shared" si="14"/>
+        <v>3.9807533066266818</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>1E+19</v>
+        <v>1E+18</v>
       </c>
       <c r="B265" s="4">
-        <f>20*60+27.209</f>
-        <v>1227.2090000000001</v>
+        <f>4*60+47.013</f>
+        <v>287.01299999999998</v>
       </c>
       <c r="C265" s="4">
-        <f>80*60+43.052</f>
-        <v>4843.0519999999997</v>
+        <f>19*60+2.464</f>
+        <v>1142.4639999999999</v>
       </c>
       <c r="D265" s="4">
-        <f>48.556</f>
-        <v>48.555999999999997</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="E265">
-        <f t="shared" si="11"/>
-        <v>3.9463954387557454</v>
+        <f t="shared" si="14"/>
+        <v>3.9805304986185295</v>
       </c>
     </row>
   </sheetData>
